--- a/static/files/expenses.xlsx
+++ b/static/files/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sifiso\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{491CD880-D294-49FA-B6A9-0D8AFD1E604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C86C72-FBF1-424C-854E-1ACCEC9C115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FFECDF63-9A43-4E12-BABF-D85D666F8C2B}"/>
   </bookViews>
@@ -33,21 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>22-01-2022</t>
   </si>
   <si>
-    <t>wine</t>
+    <t>date</t>
   </si>
   <si>
-    <t>juice</t>
+    <t>expense amount</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>groceries</t>
+    <t>income amount</t>
   </si>
 </sst>
 </file>
@@ -405,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF13EC-3976-4C4C-9E44-AF8E0456F6B9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,48 +413,48 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="B3">
         <v>50</v>
       </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>65</v>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
